--- a/I/Transformado.xlsx
+++ b/I/Transformado.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iscteiul365-my.sharepoint.com/personal/mcgb_iscte-iul_pt/Documents/L_Ciência_Dados_AnaliseExploratoriaDados/AED_2021_2022/AED_Enunciados_Trabalho/finais/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\Desktop\projeto dados\Trabalho-de-dados\I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4FB8238A-75D1-469A-9468-6F212D7F89E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7264DFCA-6A28-4592-B957-AF9F784AEEAF}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{363A476F-1576-4E73-9F28-F832CA73ABB6}"/>
+    <workbookView xWindow="1464" yWindow="-96" windowWidth="20712" windowHeight="13272"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
     <sheet name="Variáveis e códigos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados!$A$1:$L$861</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -138,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,16 +610,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014D7C3-5436-482C-98B0-21D33C03AFF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L861"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -18979,7 +18979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>504</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>505</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>506</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>507</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>508</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>509</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>510</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>511</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -19752,7 +19752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -20067,7 +20067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -20137,7 +20137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -20210,7 +20210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>547</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>548</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>549</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>550</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>551</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>552</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>553</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>554</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>555</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>556</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>557</v>
       </c>
@@ -20939,7 +20939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>558</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>559</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>560</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>561</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>562</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>563</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>564</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>565</v>
       </c>
@@ -21222,7 +21222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>566</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>567</v>
       </c>
@@ -21298,7 +21298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>568</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>569</v>
       </c>
@@ -21374,7 +21374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>570</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>571</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>572</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>573</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>574</v>
       </c>
@@ -21564,7 +21564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>575</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>576</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>577</v>
       </c>
@@ -21678,7 +21678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>578</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>579</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>580</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>581</v>
       </c>
@@ -21830,7 +21830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>582</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>583</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>584</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>585</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>586</v>
       </c>
@@ -22017,7 +22017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>587</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>588</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>589</v>
       </c>
@@ -22131,7 +22131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>590</v>
       </c>
@@ -22166,7 +22166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>591</v>
       </c>
@@ -22204,7 +22204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>592</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>593</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>594</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>595</v>
       </c>
@@ -22350,7 +22350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>596</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>597</v>
       </c>
@@ -22426,7 +22426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>598</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>599</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>600</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>601</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>602</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>603</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>604</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>605</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>606</v>
       </c>
@@ -22768,7 +22768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>607</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>608</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>609</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>610</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>611</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>612</v>
       </c>
@@ -22990,7 +22990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>613</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>614</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>615</v>
       </c>
@@ -23101,7 +23101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>616</v>
       </c>
@@ -23139,7 +23139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>617</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>618</v>
       </c>
@@ -23215,7 +23215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>619</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>620</v>
       </c>
@@ -23288,7 +23288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>621</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>622</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>623</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>624</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>625</v>
       </c>
@@ -23478,7 +23478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>626</v>
       </c>
@@ -23516,7 +23516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>627</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>628</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>629</v>
       </c>
@@ -23630,7 +23630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>630</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>631</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>632</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>633</v>
       </c>
@@ -23782,7 +23782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>634</v>
       </c>
@@ -23820,7 +23820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>635</v>
       </c>
@@ -23858,7 +23858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>636</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>637</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>638</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>639</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>640</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>641</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>642</v>
       </c>
@@ -24118,7 +24118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>643</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>644</v>
       </c>
@@ -24194,7 +24194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>645</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>646</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>647</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>648</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>649</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>650</v>
       </c>
@@ -24422,7 +24422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>651</v>
       </c>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>652</v>
       </c>
@@ -24498,7 +24498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>653</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>654</v>
       </c>
@@ -24574,7 +24574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>655</v>
       </c>
@@ -24612,7 +24612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>656</v>
       </c>
@@ -24650,7 +24650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>657</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>658</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>659</v>
       </c>
@@ -24764,7 +24764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>660</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>661</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>662</v>
       </c>
@@ -24878,7 +24878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>663</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>664</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>665</v>
       </c>
@@ -24992,7 +24992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>666</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>667</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>668</v>
       </c>
@@ -25106,7 +25106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>669</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>670</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>671</v>
       </c>
@@ -25217,7 +25217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>672</v>
       </c>
@@ -25255,7 +25255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>673</v>
       </c>
@@ -25293,7 +25293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>674</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>675</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>676</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>677</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>678</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>679</v>
       </c>
@@ -25515,7 +25515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>680</v>
       </c>
@@ -25550,7 +25550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>681</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>682</v>
       </c>
@@ -25626,7 +25626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>683</v>
       </c>
@@ -25664,7 +25664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>684</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>685</v>
       </c>
@@ -25731,7 +25731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>686</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>687</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>688</v>
       </c>
@@ -25818,7 +25818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>689</v>
       </c>
@@ -25856,7 +25856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>690</v>
       </c>
@@ -25894,7 +25894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>691</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>692</v>
       </c>
@@ -25970,7 +25970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>693</v>
       </c>
@@ -26008,7 +26008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>694</v>
       </c>
@@ -26043,7 +26043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>695</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>696</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>697</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>698</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>699</v>
       </c>
@@ -26233,7 +26233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>700</v>
       </c>
@@ -26268,7 +26268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>701</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>702</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>703</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>704</v>
       </c>
@@ -26411,7 +26411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>705</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>706</v>
       </c>
@@ -26484,7 +26484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>707</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>708</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>709</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>710</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>711</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>712</v>
       </c>
@@ -26694,7 +26694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>713</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>714</v>
       </c>
@@ -26770,7 +26770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>715</v>
       </c>
@@ -26808,7 +26808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>716</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>717</v>
       </c>
@@ -26884,7 +26884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>718</v>
       </c>
@@ -26919,7 +26919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>719</v>
       </c>
@@ -26954,7 +26954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>720</v>
       </c>
@@ -26980,7 +26980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>721</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>722</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>723</v>
       </c>
@@ -27091,7 +27091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>724</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>725</v>
       </c>
@@ -27164,7 +27164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>726</v>
       </c>
@@ -27193,7 +27193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>727</v>
       </c>
@@ -27225,7 +27225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>728</v>
       </c>
@@ -27263,7 +27263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>729</v>
       </c>
@@ -27301,7 +27301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>730</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>731</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>732</v>
       </c>
@@ -27388,7 +27388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>733</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>734</v>
       </c>
@@ -27458,7 +27458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>735</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>736</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>737</v>
       </c>
@@ -27557,7 +27557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>738</v>
       </c>
@@ -27595,7 +27595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>739</v>
       </c>
@@ -27633,7 +27633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>740</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>741</v>
       </c>
@@ -27706,7 +27706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>742</v>
       </c>
@@ -27744,7 +27744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>743</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>744</v>
       </c>
@@ -27820,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>745</v>
       </c>
@@ -27858,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>746</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>747</v>
       </c>
@@ -27934,7 +27934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>748</v>
       </c>
@@ -27972,7 +27972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>749</v>
       </c>
@@ -28010,7 +28010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>750</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>751</v>
       </c>
@@ -28083,7 +28083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>752</v>
       </c>
@@ -28121,7 +28121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>753</v>
       </c>
@@ -28147,7 +28147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>754</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>755</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>756</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>757</v>
       </c>
@@ -28293,7 +28293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>758</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>759</v>
       </c>
@@ -28366,7 +28366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>760</v>
       </c>
@@ -28404,7 +28404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>761</v>
       </c>
@@ -28442,7 +28442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>762</v>
       </c>
@@ -28480,7 +28480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>763</v>
       </c>
@@ -28518,7 +28518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>764</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>765</v>
       </c>
@@ -28585,7 +28585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>766</v>
       </c>
@@ -28623,7 +28623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>767</v>
       </c>
@@ -28661,7 +28661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>768</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>769</v>
       </c>
@@ -28731,7 +28731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>770</v>
       </c>
@@ -28769,7 +28769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>771</v>
       </c>
@@ -28807,7 +28807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>772</v>
       </c>
@@ -28845,7 +28845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>773</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>774</v>
       </c>
@@ -28921,7 +28921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>775</v>
       </c>
@@ -28959,7 +28959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>776</v>
       </c>
@@ -28997,7 +28997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>777</v>
       </c>
@@ -29035,7 +29035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>778</v>
       </c>
@@ -29073,7 +29073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>779</v>
       </c>
@@ -29111,7 +29111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>780</v>
       </c>
@@ -29149,7 +29149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>781</v>
       </c>
@@ -29187,7 +29187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>782</v>
       </c>
@@ -29222,7 +29222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>783</v>
       </c>
@@ -29257,7 +29257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>784</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>785</v>
       </c>
@@ -29330,7 +29330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>786</v>
       </c>
@@ -29368,7 +29368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>787</v>
       </c>
@@ -29406,7 +29406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>788</v>
       </c>
@@ -29444,7 +29444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>789</v>
       </c>
@@ -29482,7 +29482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>790</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>791</v>
       </c>
@@ -29558,7 +29558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>792</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>793</v>
       </c>
@@ -29634,7 +29634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>794</v>
       </c>
@@ -29672,7 +29672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>795</v>
       </c>
@@ -29710,7 +29710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>796</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>797</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>798</v>
       </c>
@@ -29824,7 +29824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>799</v>
       </c>
@@ -29862,7 +29862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>800</v>
       </c>
@@ -29900,7 +29900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>801</v>
       </c>
@@ -29938,7 +29938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>802</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>803</v>
       </c>
@@ -29996,7 +29996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>804</v>
       </c>
@@ -30034,7 +30034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>805</v>
       </c>
@@ -30063,7 +30063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>806</v>
       </c>
@@ -30098,7 +30098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>807</v>
       </c>
@@ -30136,7 +30136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>808</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>809</v>
       </c>
@@ -30212,7 +30212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>810</v>
       </c>
@@ -30250,7 +30250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>811</v>
       </c>
@@ -30288,7 +30288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>812</v>
       </c>
@@ -30326,7 +30326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>813</v>
       </c>
@@ -30364,7 +30364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>814</v>
       </c>
@@ -30399,7 +30399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>815</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>816</v>
       </c>
@@ -30463,7 +30463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>817</v>
       </c>
@@ -30501,7 +30501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>818</v>
       </c>
@@ -30539,7 +30539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>819</v>
       </c>
@@ -30577,7 +30577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>820</v>
       </c>
@@ -30615,7 +30615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>821</v>
       </c>
@@ -30653,7 +30653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>822</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>823</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>824</v>
       </c>
@@ -30764,7 +30764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>825</v>
       </c>
@@ -30799,7 +30799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>826</v>
       </c>
@@ -30837,7 +30837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>827</v>
       </c>
@@ -30875,7 +30875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>828</v>
       </c>
@@ -30913,7 +30913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>829</v>
       </c>
@@ -30951,7 +30951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>830</v>
       </c>
@@ -30989,7 +30989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>831</v>
       </c>
@@ -31027,7 +31027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>832</v>
       </c>
@@ -31059,7 +31059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>833</v>
       </c>
@@ -31076,7 +31076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>834</v>
       </c>
@@ -31111,7 +31111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>835</v>
       </c>
@@ -31146,7 +31146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>836</v>
       </c>
@@ -31184,7 +31184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>837</v>
       </c>
@@ -31222,7 +31222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>838</v>
       </c>
@@ -31260,7 +31260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>839</v>
       </c>
@@ -31298,7 +31298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>840</v>
       </c>
@@ -31336,7 +31336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>841</v>
       </c>
@@ -31374,7 +31374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>842</v>
       </c>
@@ -31412,7 +31412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>843</v>
       </c>
@@ -31450,7 +31450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>844</v>
       </c>
@@ -31488,7 +31488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>845</v>
       </c>
@@ -31526,7 +31526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>846</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>847</v>
       </c>
@@ -31584,7 +31584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>848</v>
       </c>
@@ -31616,7 +31616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>849</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>850</v>
       </c>
@@ -31692,7 +31692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>851</v>
       </c>
@@ -31724,7 +31724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>852</v>
       </c>
@@ -31747,7 +31747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>853</v>
       </c>
@@ -31782,7 +31782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>854</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>855</v>
       </c>
@@ -31852,7 +31852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>856</v>
       </c>
@@ -31887,7 +31887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>857</v>
       </c>
@@ -31925,7 +31925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>858</v>
       </c>
@@ -31951,7 +31951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>859</v>
       </c>
@@ -31986,7 +31986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>860</v>
       </c>
@@ -32025,28 +32025,29 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L861"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66578CF9-4AED-4BBA-88A4-84CAD7A09AE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="75.59765625" customWidth="1"/>
-    <col min="3" max="3" width="5.86328125" customWidth="1"/>
+    <col min="2" max="2" width="75.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32058,7 +32059,7 @@
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -32072,7 +32073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -32086,7 +32087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -32096,7 +32097,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -32106,7 +32107,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -32118,7 +32119,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -32132,7 +32133,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -32148,7 +32149,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -32164,7 +32165,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -32180,7 +32181,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -32192,7 +32193,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -32204,19 +32205,19 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -32226,7 +32227,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -32238,7 +32239,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -32248,19 +32249,19 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>3</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>4</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -32269,26 +32270,26 @@
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F26" s="13"/>
     </row>
   </sheetData>
@@ -32307,55 +32308,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AppVersion xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <Invited_Teachers xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <Templates xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <Teachers xmlns="4b08588e-df41-431b-bafe-e7896c317002">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="4b08588e-df41-431b-bafe-e7896c317002">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="4b08588e-df41-431b-bafe-e7896c317002">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Invited_Students xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <Math_Settings xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <FolderType xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <Owner xmlns="4b08588e-df41-431b-bafe-e7896c317002">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <TeamsChannelId xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <NotebookType xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-    <CultureName xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E71F3F2CE362A45BD297059054AA58E" ma:contentTypeVersion="31" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="b8e0ed89c01c046c6ddb482129d97527">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4b08588e-df41-431b-bafe-e7896c317002" xmlns:ns4="9b2140f1-0cb4-488b-96f2-fdb5eba9a44a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d44c0e52cc2926bfa412c89b43248b6" ns3:_="" ns4:_="">
     <xsd:import namespace="4b08588e-df41-431b-bafe-e7896c317002"/>
@@ -32750,6 +32702,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AppVersion xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <Invited_Teachers xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <Templates xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <Teachers xmlns="4b08588e-df41-431b-bafe-e7896c317002">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="4b08588e-df41-431b-bafe-e7896c317002">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="4b08588e-df41-431b-bafe-e7896c317002">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Invited_Students xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <Math_Settings xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <FolderType xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <Owner xmlns="4b08588e-df41-431b-bafe-e7896c317002">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <TeamsChannelId xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <NotebookType xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+    <CultureName xmlns="4b08588e-df41-431b-bafe-e7896c317002" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A755E1C7-267D-46E7-A7B5-58BC0BF5E072}">
   <ds:schemaRefs>
@@ -32759,16 +32760,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6CA3D39-E85E-42CF-9D74-83A6D9E4218E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4b08588e-df41-431b-bafe-e7896c317002"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{004794A5-A0FE-45E3-B2C6-CB3CE64274D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32785,4 +32776,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6CA3D39-E85E-42CF-9D74-83A6D9E4218E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4b08588e-df41-431b-bafe-e7896c317002"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>